--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simen\Tables2\tables\Scripts\Kamper\V23\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7F94EC-2057-43C4-B0E2-621A8191B616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,19 +149,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,27 +227,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,24 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,26 +436,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.703125" customWidth="1"/>
-    <col min="2" max="4" width="5.703125" customWidth="1"/>
-    <col min="5" max="5" width="13.703125" customWidth="1"/>
-    <col min="6" max="6" width="6.703125" customWidth="1"/>
-    <col min="7" max="7" width="5.703125" customWidth="1"/>
-    <col min="8" max="8" width="6.703125" customWidth="1"/>
-    <col min="9" max="9" width="8.703125" customWidth="1"/>
-    <col min="10" max="10" width="53.703125" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -545,7 +493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -556,15 +504,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -587,7 +541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -595,7 +549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -603,7 +557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -611,7 +565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -634,7 +588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -642,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -650,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -658,7 +612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -681,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -689,7 +643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -697,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -705,7 +659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -728,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -736,7 +690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -744,7 +698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>12</v>
       </c>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
-  <si>
-    <t>Week 1:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+  <si>
+    <t>Runde</t>
+  </si>
+  <si>
+    <t>Hjemmelag</t>
   </si>
   <si>
     <t>H</t>
@@ -28,7 +31,7 @@
     <t>B</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Bortelag</t>
   </si>
   <si>
     <t>Dato</t>
@@ -46,6 +49,21 @@
     <t>Merknad</t>
   </si>
   <si>
+    <t>Runde 1</t>
+  </si>
+  <si>
+    <t>Runde 2</t>
+  </si>
+  <si>
+    <t>Runde 3</t>
+  </si>
+  <si>
+    <t>Runde 4</t>
+  </si>
+  <si>
+    <t>Runde 5</t>
+  </si>
+  <si>
     <t>Janus FK</t>
   </si>
   <si>
@@ -55,25 +73,13 @@
     <t>NTNUI Samba</t>
   </si>
   <si>
-    <t>Week 2:</t>
-  </si>
-  <si>
     <t>Marin FK</t>
   </si>
   <si>
-    <t>Week 3:</t>
-  </si>
-  <si>
-    <t>Week 4:</t>
-  </si>
-  <si>
     <t>Energi FK</t>
   </si>
   <si>
     <t>HSK</t>
-  </si>
-  <si>
-    <t>Week 5:</t>
   </si>
   <si>
     <t>Janus</t>
@@ -437,23 +443,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,226 +491,182 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+      <c r="F21" t="s">
         <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Runde</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Janus</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>Omega FK sin første sluttspillkamp blir etter påske</t>
@@ -517,7 +523,7 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -527,11 +533,11 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
   <si>
     <t>Runde</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>Omega FK sin første sluttspillkamp blir etter påske</t>
   </si>
 </sst>
 </file>
@@ -463,7 +460,7 @@
     <col min="8" max="8" width="5.7109375" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="53.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -522,9 +519,6 @@
       <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>Runde</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>Janus</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -527,11 +521,11 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -14,24 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
-  <si>
-    <t>Runde</t>
-  </si>
-  <si>
-    <t>Hjemmelag</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+  <si>
+    <t>Week 1:</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>v</t>
+    <t>Unnamed: 2</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>Bortelag</t>
+    <t>Unnamed: 4</t>
   </si>
   <si>
     <t>Dato</t>
@@ -49,21 +46,6 @@
     <t>Merknad</t>
   </si>
   <si>
-    <t>Runde 1</t>
-  </si>
-  <si>
-    <t>Runde 2</t>
-  </si>
-  <si>
-    <t>Runde 3</t>
-  </si>
-  <si>
-    <t>Runde 4</t>
-  </si>
-  <si>
-    <t>Runde 5</t>
-  </si>
-  <si>
     <t>Janus FK</t>
   </si>
   <si>
@@ -73,16 +55,31 @@
     <t>NTNUI Samba</t>
   </si>
   <si>
+    <t>Week 2:</t>
+  </si>
+  <si>
     <t>Marin FK</t>
   </si>
   <si>
+    <t>Week 3:</t>
+  </si>
+  <si>
+    <t>Week 4:</t>
+  </si>
+  <si>
     <t>Energi FK</t>
   </si>
   <si>
     <t>HSK</t>
   </si>
   <si>
+    <t>Week 5:</t>
+  </si>
+  <si>
     <t>Janus</t>
+  </si>
+  <si>
+    <t>Omega FK sin første sluttspillkamp blir etter påske</t>
   </si>
 </sst>
 </file>
@@ -440,24 +437,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,179 +486,220 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E23" t="s">
         <v>17</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -499,6 +499,12 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -516,6 +516,12 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -608,6 +608,12 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -491,6 +491,12 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -492,10 +492,10 @@
         <v>10</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2">
         <v>0</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -675,6 +675,12 @@
       <c r="A19" t="s">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
@@ -721,6 +727,12 @@
     <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>12</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>Week 1:</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Week 5:</t>
-  </si>
-  <si>
-    <t>Janus</t>
   </si>
   <si>
     <t>Omega FK sin første sluttspillkamp blir etter påske</t>
@@ -515,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -710,7 +707,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -556,6 +556,12 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -578,6 +578,12 @@
       <c r="A9" t="s">
         <v>11</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
@@ -631,6 +637,12 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
@@ -662,6 +674,12 @@
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
@@ -728,6 +746,12 @@
     <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>18</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>17</v>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -570,6 +570,12 @@
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>

--- a/Scripts/Kamper/V23/A-sluttspill.xlsx
+++ b/Scripts/Kamper/V23/A-sluttspill.xlsx
@@ -694,6 +694,12 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
